--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/15/seed1/result_data_RandomForest.xlsx
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.25030000000001</v>
+        <v>-12.04570000000001</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.3705</v>
+        <v>-12.35360000000001</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.9096</v>
+        <v>-13.1336</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.2463</v>
+        <v>-14.26439999999998</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.59850000000001</v>
+        <v>-11.5477</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.37510000000001</v>
+        <v>-12.70779999999999</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.27420000000001</v>
+        <v>-11.24030000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.15460000000001</v>
+        <v>-12.9231</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.996</v>
+        <v>-12.7645</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.71009999999999</v>
+        <v>-14.58299999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.40430000000001</v>
+        <v>-11.5427</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.1432</v>
+        <v>-11.2672</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.24059999999999</v>
+        <v>-14.16169999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.81189999999999</v>
+        <v>-12.61389999999999</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.3946</v>
+        <v>-14.1528</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1556,7 +1556,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-10.9413</v>
+        <v>-10.9659</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.4205</v>
+        <v>-12.3742</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,7 +1692,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-11.98320000000001</v>
+        <v>-11.79380000000001</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.9596</v>
+        <v>-10.92679999999999</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.6875</v>
+        <v>-13.0562</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
